--- a/일괄등록/03_식품.xlsx
+++ b/일괄등록/03_식품.xlsx
@@ -552,90 +552,6 @@
     <t>&lt;p&gt;&lt;/p&gt;&lt;p align="center"&gt;&lt;IMG src="http://tongup1emd.cafe24.com/img/Image_detail/03_Food_28ea/474_상세.jpg" style="width:860px;"&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>한)바몬드230g순한맛,스낵,농심,하우스</t>
-  </si>
-  <si>
-    <t>한)바몬드230g약간매운맛,스낵,농심,하우스</t>
-  </si>
-  <si>
-    <t>한)바몬드230g매운맛,스낵,농심,하우스</t>
-  </si>
-  <si>
-    <t>한)바몬드115g순한맛,스낵,농심,하우스</t>
-  </si>
-  <si>
-    <t>한)바몬드115g약간매운맛,스낵,농심,하우스</t>
-  </si>
-  <si>
-    <t>한)바몬드115g매운맛,스낵,농심,하우스</t>
-  </si>
-  <si>
-    <t>VONO(30입)크림스프포타주/10개,스낵,농심,보노</t>
-  </si>
-  <si>
-    <t>VONO(30입)콘스프/10개,스낵,농심,보노</t>
-  </si>
-  <si>
-    <t>VONO(30입)포르치니버섯스프/10개,스낵,농심,보노</t>
-  </si>
-  <si>
-    <t>VONO(30입)체다치즈스프/10개,스낵,농심,보노</t>
-  </si>
-  <si>
-    <t>VONO(30입)옥수수알그대로콘스프/10개,스낵,농심,보노</t>
-  </si>
-  <si>
-    <t>바실리코파스타소스,스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>올리브파스타소스,스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>아라비아타파스타소스,스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>스파게티1kg,스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>스파게티500g,스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>펜네리가테,스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>파팔레(나비모양파스타),스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>링귀니(바베떼),스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>푸실리,스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>엔젤헤어(카펠리니),스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>페튜치네(파파델레),스낵,농심,바릴라</t>
-  </si>
-  <si>
-    <t>후추1.5온스,스낵,농심,맥코믹</t>
-  </si>
-  <si>
-    <t>후추3온스,스낵,농심,맥코믹</t>
-  </si>
-  <si>
-    <t>오션스프레이 크레이진 건조크랜베리 오리지날 142g,스낵,동서,오션스프레이</t>
-  </si>
-  <si>
-    <t>오션스프레이 크레이진 건조크랜베리 블루베리 142g,스낵,동서,오션스프레이</t>
-  </si>
-  <si>
-    <t>오션스프레이 크레이진 건조크랜베리 석류맛 142g,스낵,동서,오션스프레이</t>
-  </si>
-  <si>
-    <t>오션스프레이 크레이진 밀크 초콜릿227g,스낵,동서,오션스프레이</t>
-  </si>
-  <si>
     <t>5631_450x450.jpg</t>
   </si>
   <si>
@@ -1092,6 +1008,90 @@
   <si>
     <t>오션스프레이 크레이진 밀크 초콜릿227g</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>한)바몬드230g순한맛,식품,농심,하우스</t>
+  </si>
+  <si>
+    <t>한)바몬드230g약간매운맛,식품,농심,하우스</t>
+  </si>
+  <si>
+    <t>한)바몬드230g매운맛,식품,농심,하우스</t>
+  </si>
+  <si>
+    <t>한)바몬드115g순한맛,식품,농심,하우스</t>
+  </si>
+  <si>
+    <t>한)바몬드115g약간매운맛,식품,농심,하우스</t>
+  </si>
+  <si>
+    <t>한)바몬드115g매운맛,식품,농심,하우스</t>
+  </si>
+  <si>
+    <t>VONO(30입)크림스프포타주/10개,식품,농심,보노</t>
+  </si>
+  <si>
+    <t>VONO(30입)콘스프/10개,식품,농심,보노</t>
+  </si>
+  <si>
+    <t>VONO(30입)포르치니버섯스프/10개,식품,농심,보노</t>
+  </si>
+  <si>
+    <t>VONO(30입)체다치즈스프/10개,식품,농심,보노</t>
+  </si>
+  <si>
+    <t>VONO(30입)옥수수알그대로콘스프/10개,식품,농심,보노</t>
+  </si>
+  <si>
+    <t>바실리코파스타소스,식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>올리브파스타소스,식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>아라비아타파스타소스,식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>스파게티1kg,식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>스파게티500g,식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>펜네리가테,식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>파팔레(나비모양파스타),식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>링귀니(바베떼),식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>푸실리,식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>엔젤헤어(카펠리니),식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>페튜치네(파파델레),식품,농심,바릴라</t>
+  </si>
+  <si>
+    <t>후추1.5온스,식품,농심,맥코믹</t>
+  </si>
+  <si>
+    <t>후추3온스,식품,농심,맥코믹</t>
+  </si>
+  <si>
+    <t>오션스프레이 크레이진 건조크랜베리 오리지날 142g,식품,건과류,동서,오션스프레이</t>
+  </si>
+  <si>
+    <t>오션스프레이 크레이진 건조크랜베리 블루베리 142g,식품,건과류,동서,오션스프레이</t>
+  </si>
+  <si>
+    <t>오션스프레이 크레이진 건조크랜베리 석류맛 142g,식품,건과류,동서,오션스프레이</t>
+  </si>
+  <si>
+    <t>오션스프레이 크레이진 밀크 초콜릿227g,식품,건과류,동서,오션스프레이</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1760,6 +1760,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1895,7 +1908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2128,6 +2141,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2479,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CG23" sqref="CG23"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2808,8 +2824,8 @@
         <v>86</v>
       </c>
       <c r="Q2" s="12"/>
-      <c r="R2" s="13" t="s">
-        <v>171</v>
+      <c r="R2" s="78" t="s">
+        <v>315</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>87</v>
@@ -2853,16 +2869,16 @@
       <c r="AR2" s="12"/>
       <c r="AS2" s="12"/>
       <c r="AT2" s="21" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="AU2" s="13" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="AV2" s="13" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="AW2" s="13" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="AX2" s="63" t="s">
         <v>97</v>
@@ -2924,11 +2940,11 @@
       <c r="CE2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="CF2" s="13" t="s">
-        <v>171</v>
+      <c r="CF2" s="78" t="s">
+        <v>315</v>
       </c>
       <c r="CG2" s="47" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="CH2" s="12" t="s">
         <v>93</v>
@@ -2973,7 +2989,7 @@
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="1" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>87</v>
@@ -3017,16 +3033,16 @@
       <c r="AR3" s="6"/>
       <c r="AS3" s="6"/>
       <c r="AT3" s="4" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="AX3" s="64" t="s">
         <v>97</v>
@@ -3089,10 +3105,10 @@
         <v>95</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="CG3" s="30" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="CH3" s="6" t="s">
         <v>93</v>
@@ -3137,7 +3153,7 @@
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="1" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>87</v>
@@ -3181,16 +3197,16 @@
       <c r="AR4" s="6"/>
       <c r="AS4" s="6"/>
       <c r="AT4" s="4" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="AX4" s="64" t="s">
         <v>97</v>
@@ -3253,10 +3269,10 @@
         <v>95</v>
       </c>
       <c r="CF4" s="1" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="CG4" s="30" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="CH4" s="6" t="s">
         <v>93</v>
@@ -3301,7 +3317,7 @@
       </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="1" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>87</v>
@@ -3345,16 +3361,16 @@
       <c r="AR5" s="6"/>
       <c r="AS5" s="6"/>
       <c r="AT5" s="4" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="AX5" s="64" t="s">
         <v>97</v>
@@ -3417,10 +3433,10 @@
         <v>95</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="CG5" s="30" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="CH5" s="6" t="s">
         <v>93</v>
@@ -3465,7 +3481,7 @@
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="1" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>87</v>
@@ -3509,16 +3525,16 @@
       <c r="AR6" s="6"/>
       <c r="AS6" s="6"/>
       <c r="AT6" s="4" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="AX6" s="64" t="s">
         <v>97</v>
@@ -3581,10 +3597,10 @@
         <v>95</v>
       </c>
       <c r="CF6" s="1" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="CG6" s="30" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="CH6" s="6" t="s">
         <v>93</v>
@@ -3629,7 +3645,7 @@
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="1" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>87</v>
@@ -3673,16 +3689,16 @@
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
       <c r="AT7" s="4" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="AX7" s="64" t="s">
         <v>97</v>
@@ -3745,10 +3761,10 @@
         <v>95</v>
       </c>
       <c r="CF7" s="1" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="CG7" s="30" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="CH7" s="6" t="s">
         <v>93</v>
@@ -3793,7 +3809,7 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="1" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>87</v>
@@ -3837,16 +3853,16 @@
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="27" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="AU8" s="25" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="AV8" s="25" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AW8" s="25" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="AX8" s="64" t="s">
         <v>97</v>
@@ -3884,7 +3900,7 @@
       </c>
       <c r="BR8" s="6"/>
       <c r="BS8" s="25" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="BT8" s="25">
         <v>2500</v>
@@ -3909,10 +3925,10 @@
         <v>95</v>
       </c>
       <c r="CF8" s="1" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="CG8" s="31" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="CH8" s="6" t="s">
         <v>93</v>
@@ -3957,7 +3973,7 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="1" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>87</v>
@@ -4001,16 +4017,16 @@
       <c r="AR9" s="6"/>
       <c r="AS9" s="6"/>
       <c r="AT9" s="27" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="AU9" s="25" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="AV9" s="25" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="AW9" s="25" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="AX9" s="64" t="s">
         <v>97</v>
@@ -4048,7 +4064,7 @@
       </c>
       <c r="BR9" s="6"/>
       <c r="BS9" s="25" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="BT9" s="25">
         <v>2500</v>
@@ -4073,10 +4089,10 @@
         <v>95</v>
       </c>
       <c r="CF9" s="1" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="CG9" s="31" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="CH9" s="6" t="s">
         <v>93</v>
@@ -4121,7 +4137,7 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="1" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>87</v>
@@ -4165,16 +4181,16 @@
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="27" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="AU10" s="25" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="AV10" s="25" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="AW10" s="25" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="AX10" s="64" t="s">
         <v>97</v>
@@ -4212,7 +4228,7 @@
       </c>
       <c r="BR10" s="6"/>
       <c r="BS10" s="25" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="BT10" s="25">
         <v>2500</v>
@@ -4237,10 +4253,10 @@
         <v>95</v>
       </c>
       <c r="CF10" s="1" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="CG10" s="31" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="CH10" s="6" t="s">
         <v>93</v>
@@ -4285,7 +4301,7 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="1" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>87</v>
@@ -4329,16 +4345,16 @@
       <c r="AR11" s="6"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="27" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="AU11" s="25" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="AV11" s="25" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="AW11" s="25" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="AX11" s="64" t="s">
         <v>97</v>
@@ -4376,7 +4392,7 @@
       </c>
       <c r="BR11" s="6"/>
       <c r="BS11" s="25" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="BT11" s="25">
         <v>2500</v>
@@ -4401,10 +4417,10 @@
         <v>95</v>
       </c>
       <c r="CF11" s="1" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="CG11" s="31" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="CH11" s="6" t="s">
         <v>93</v>
@@ -4449,7 +4465,7 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="1" t="s">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>87</v>
@@ -4493,16 +4509,16 @@
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
       <c r="AT12" s="27" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="AU12" s="25" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="AV12" s="25" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="AW12" s="25" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="AX12" s="64" t="s">
         <v>97</v>
@@ -4540,7 +4556,7 @@
       </c>
       <c r="BR12" s="6"/>
       <c r="BS12" s="25" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="BT12" s="25">
         <v>2500</v>
@@ -4565,10 +4581,10 @@
         <v>95</v>
       </c>
       <c r="CF12" s="1" t="s">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="CG12" s="31" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="CH12" s="6" t="s">
         <v>93</v>
@@ -4613,7 +4629,7 @@
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="1" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>87</v>
@@ -4657,16 +4673,16 @@
       <c r="AR13" s="6"/>
       <c r="AS13" s="6"/>
       <c r="AT13" s="4" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="AW13" s="1" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="AX13" s="64" t="s">
         <v>97</v>
@@ -4729,10 +4745,10 @@
         <v>95</v>
       </c>
       <c r="CF13" s="1" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="CG13" s="30" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="CH13" s="6" t="s">
         <v>93</v>
@@ -4777,7 +4793,7 @@
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="1" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>87</v>
@@ -4821,16 +4837,16 @@
       <c r="AR14" s="6"/>
       <c r="AS14" s="6"/>
       <c r="AT14" s="4" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="AW14" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="AX14" s="64" t="s">
         <v>97</v>
@@ -4893,10 +4909,10 @@
         <v>95</v>
       </c>
       <c r="CF14" s="1" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="CG14" s="30" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="CH14" s="6" t="s">
         <v>93</v>
@@ -4941,7 +4957,7 @@
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="1" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>87</v>
@@ -4985,16 +5001,16 @@
       <c r="AR15" s="6"/>
       <c r="AS15" s="6"/>
       <c r="AT15" s="4" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="AW15" s="1" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="AX15" s="64" t="s">
         <v>97</v>
@@ -5057,10 +5073,10 @@
         <v>95</v>
       </c>
       <c r="CF15" s="1" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="CG15" s="30" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="CH15" s="6" t="s">
         <v>93</v>
@@ -5105,7 +5121,7 @@
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="1" t="s">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>87</v>
@@ -5149,16 +5165,16 @@
       <c r="AR16" s="6"/>
       <c r="AS16" s="6"/>
       <c r="AT16" s="4" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="AW16" s="1" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="AX16" s="64" t="s">
         <v>97</v>
@@ -5221,10 +5237,10 @@
         <v>95</v>
       </c>
       <c r="CF16" s="1" t="s">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="CG16" s="30" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="CH16" s="6" t="s">
         <v>93</v>
@@ -5269,7 +5285,7 @@
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="1" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>87</v>
@@ -5313,16 +5329,16 @@
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
       <c r="AT17" s="4" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="AW17" s="1" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="AX17" s="64" t="s">
         <v>97</v>
@@ -5385,10 +5401,10 @@
         <v>95</v>
       </c>
       <c r="CF17" s="1" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="CG17" s="30" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="CH17" s="6" t="s">
         <v>93</v>
@@ -5433,7 +5449,7 @@
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="1" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>87</v>
@@ -5477,16 +5493,16 @@
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="4" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="AW18" s="1" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="AX18" s="64" t="s">
         <v>97</v>
@@ -5527,7 +5543,7 @@
         <v>89</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="BU18" s="6"/>
       <c r="BV18" s="6"/>
@@ -5549,10 +5565,10 @@
         <v>95</v>
       </c>
       <c r="CF18" s="1" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="CG18" s="30" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="CH18" s="6" t="s">
         <v>93</v>
@@ -5597,7 +5613,7 @@
       </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="1" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>87</v>
@@ -5641,16 +5657,16 @@
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
       <c r="AT19" s="4" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="AX19" s="64" t="s">
         <v>97</v>
@@ -5691,7 +5707,7 @@
         <v>89</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="BU19" s="6"/>
       <c r="BV19" s="6"/>
@@ -5713,10 +5729,10 @@
         <v>95</v>
       </c>
       <c r="CF19" s="1" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="CG19" s="30" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="CH19" s="6" t="s">
         <v>93</v>
@@ -5761,7 +5777,7 @@
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="1" t="s">
-        <v>189</v>
+        <v>333</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>87</v>
@@ -5805,16 +5821,16 @@
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
       <c r="AT20" s="4" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="AX20" s="64" t="s">
         <v>97</v>
@@ -5855,7 +5871,7 @@
         <v>89</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="BU20" s="6"/>
       <c r="BV20" s="6"/>
@@ -5877,10 +5893,10 @@
         <v>95</v>
       </c>
       <c r="CF20" s="1" t="s">
-        <v>189</v>
+        <v>333</v>
       </c>
       <c r="CG20" s="30" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="CH20" s="6" t="s">
         <v>93</v>
@@ -5925,7 +5941,7 @@
       </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="1" t="s">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>87</v>
@@ -5969,16 +5985,16 @@
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="4" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="AW21" s="1" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="AX21" s="64" t="s">
         <v>97</v>
@@ -6019,7 +6035,7 @@
         <v>89</v>
       </c>
       <c r="BT21" s="1" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="BU21" s="6"/>
       <c r="BV21" s="6"/>
@@ -6041,10 +6057,10 @@
         <v>95</v>
       </c>
       <c r="CF21" s="1" t="s">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="CG21" s="30" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="CH21" s="6" t="s">
         <v>93</v>
@@ -6089,7 +6105,7 @@
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="1" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="S22" s="6" t="s">
         <v>87</v>
@@ -6133,16 +6149,16 @@
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="4" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="AW22" s="1" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AX22" s="64" t="s">
         <v>97</v>
@@ -6183,7 +6199,7 @@
         <v>89</v>
       </c>
       <c r="BT22" s="1" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="BU22" s="6"/>
       <c r="BV22" s="6"/>
@@ -6205,10 +6221,10 @@
         <v>95</v>
       </c>
       <c r="CF22" s="1" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="CG22" s="30" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="CH22" s="6" t="s">
         <v>93</v>
@@ -6253,7 +6269,7 @@
       </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="1" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>87</v>
@@ -6297,16 +6313,16 @@
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
       <c r="AT23" s="4" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="AX23" s="64" t="s">
         <v>97</v>
@@ -6369,10 +6385,10 @@
         <v>95</v>
       </c>
       <c r="CF23" s="1" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="CG23" s="30" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="CH23" s="6" t="s">
         <v>93</v>
@@ -6417,7 +6433,7 @@
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="1" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="S24" s="6" t="s">
         <v>87</v>
@@ -6461,16 +6477,16 @@
       <c r="AR24" s="6"/>
       <c r="AS24" s="6"/>
       <c r="AT24" s="4" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="AV24" s="1" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="AW24" s="1" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="AX24" s="64" t="s">
         <v>97</v>
@@ -6533,10 +6549,10 @@
         <v>95</v>
       </c>
       <c r="CF24" s="1" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="CG24" s="30" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="CH24" s="6" t="s">
         <v>93</v>
@@ -6580,7 +6596,7 @@
       </c>
       <c r="Q25" s="67"/>
       <c r="R25" s="70" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="S25" s="67" t="s">
         <v>87</v>
@@ -6624,16 +6640,16 @@
       <c r="AR25" s="67"/>
       <c r="AS25" s="67"/>
       <c r="AT25" s="69" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="AU25" s="70" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="AV25" s="70" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="AW25" s="70" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="AX25" s="72" t="s">
         <v>97</v>
@@ -6696,10 +6712,10 @@
         <v>95</v>
       </c>
       <c r="CF25" s="70" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="CG25" s="76" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="CH25" s="67" t="s">
         <v>93</v>
@@ -6744,7 +6760,7 @@
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="13" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="S26" s="12" t="s">
         <v>87</v>
@@ -6788,19 +6804,19 @@
       <c r="AR26" s="12"/>
       <c r="AS26" s="12"/>
       <c r="AT26" s="21" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="AU26" s="13" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="AV26" s="13" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="AW26" s="13" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="AX26" s="63" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="AY26" s="22"/>
       <c r="AZ26" s="12"/>
@@ -6860,10 +6876,10 @@
         <v>95</v>
       </c>
       <c r="CF26" s="13" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="CG26" s="37" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="CH26" s="12" t="s">
         <v>93</v>
@@ -6908,7 +6924,7 @@
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="1" t="s">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>87</v>
@@ -6952,19 +6968,19 @@
       <c r="AR27" s="6"/>
       <c r="AS27" s="6"/>
       <c r="AT27" s="4" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="AV27" s="1" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AW27" s="1" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="AX27" s="64" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="AY27" s="7"/>
       <c r="AZ27" s="6"/>
@@ -7024,10 +7040,10 @@
         <v>95</v>
       </c>
       <c r="CF27" s="1" t="s">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="CG27" s="32" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="CH27" s="6" t="s">
         <v>93</v>
@@ -7072,7 +7088,7 @@
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="1" t="s">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="S28" s="6" t="s">
         <v>87</v>
@@ -7116,19 +7132,19 @@
       <c r="AR28" s="6"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="4" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="AW28" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="AX28" s="64" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="AY28" s="7"/>
       <c r="AZ28" s="6"/>
@@ -7188,10 +7204,10 @@
         <v>95</v>
       </c>
       <c r="CF28" s="1" t="s">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="CG28" s="32" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="CH28" s="6" t="s">
         <v>93</v>
@@ -7236,7 +7252,7 @@
       </c>
       <c r="Q29" s="17"/>
       <c r="R29" s="18" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="S29" s="17" t="s">
         <v>87</v>
@@ -7280,19 +7296,19 @@
       <c r="AR29" s="17"/>
       <c r="AS29" s="17"/>
       <c r="AT29" s="5" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="AU29" s="18" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="AV29" s="18" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="AW29" s="18" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="AX29" s="65" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="AY29" s="19"/>
       <c r="AZ29" s="17"/>
@@ -7352,10 +7368,10 @@
         <v>95</v>
       </c>
       <c r="CF29" s="18" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="CG29" s="33" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="CH29" s="17" t="s">
         <v>93</v>
